--- a/Document/9.ProjectTestReport.xlsx
+++ b/Document/9.ProjectTestReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khoá luận tốt nghiệp\Doc_TN _Update\Doc_TN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FX506LH\Downloads\Doc_TN\Doc_TN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185CA79-C08E-4468-A1DC-90F84CA2A511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801BEED2-3A3E-4FDE-9694-9443EBC901A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1"/>
@@ -905,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
@@ -918,7 +918,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1"/>
@@ -988,7 +988,7 @@
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="9">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>20</v>
@@ -1122,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="14">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>20</v>
@@ -1143,10 +1143,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="14">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="E20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>20</v>
@@ -1164,10 +1164,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="14">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="E21" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>20</v>
@@ -1232,7 +1232,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1"/>
@@ -1342,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
@@ -1355,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1"/>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="9">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
@@ -1493,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="14">
-        <v>100</v>
+        <v>0.95</v>
       </c>
       <c r="E16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>20</v>
@@ -1535,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>20</v>
@@ -1556,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>20</v>
@@ -1577,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="14">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="E20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>20</v>
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -1663,7 +1663,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6B0197-450E-459B-920E-66F2E3F3AC20}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1"/>
@@ -1777,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
@@ -1790,7 +1790,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1"/>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
@@ -1949,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="14">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>20</v>
@@ -1970,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>20</v>
@@ -2068,7 +2068,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
